--- a/data/management/Management_information_GGE_2018.xlsx
+++ b/data/management/Management_information_GGE_2018.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tillrose/Library/Mobile Documents/com~apple~CloudDocs/iCloud Daten/Arbeit/R-Projects/Git_Repositories/BRIWECS_Data_Publication_2/data/management/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E20716D-518B-B541-A575-7DD4864FBECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12705"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="36540" windowHeight="20160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -277,9 +283,6 @@
     <t>Ernte vom 09.07 -12.07.2018</t>
   </si>
   <si>
-    <t>KAS 27</t>
-  </si>
-  <si>
     <t>Biathlon 4D</t>
   </si>
   <si>
@@ -323,13 +326,16 @@
   </si>
   <si>
     <t>Grunddünger 01.03.2018  90 P2O5   270 K2O  64 MgO    51 S</t>
+  </si>
+  <si>
+    <t>CAN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -661,21 +667,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% - Akzent3" xfId="3" builtinId="38"/>
-    <cellStyle name="Ausgabe" xfId="2" builtinId="21"/>
-    <cellStyle name="Eingabe" xfId="1" builtinId="20"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="20% - Accent3" xfId="3" builtinId="38"/>
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -691,9 +697,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -731,7 +737,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -765,6 +771,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -799,9 +806,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -974,39 +982,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" style="2"/>
-    <col min="6" max="6" width="33.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.5" style="2"/>
+    <col min="6" max="6" width="33.83203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="32" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="36.5703125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="2"/>
+    <col min="10" max="10" width="20.83203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="36.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="34.5" customHeight="1">
+    <row r="1" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
@@ -1014,7 +1022,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -1022,7 +1030,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -1030,7 +1038,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -1038,7 +1046,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
@@ -1046,7 +1054,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
@@ -1054,7 +1062,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -1062,7 +1070,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
@@ -1070,19 +1078,19 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="3"/>
     </row>
-    <row r="12" spans="1:2" ht="45.75" customHeight="1">
+    <row r="12" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
@@ -1090,7 +1098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
@@ -1098,7 +1106,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
@@ -1106,7 +1114,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>29</v>
       </c>
@@ -1114,21 +1122,21 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="53.25" customHeight="1">
+    <row r="18" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
@@ -1137,7 +1145,7 @@
       </c>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>31</v>
       </c>
@@ -1146,7 +1154,7 @@
       </c>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>32</v>
       </c>
@@ -1155,7 +1163,7 @@
       </c>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>33</v>
       </c>
@@ -1166,7 +1174,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>34</v>
       </c>
@@ -1175,7 +1183,7 @@
       </c>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>35</v>
       </c>
@@ -1184,7 +1192,7 @@
       </c>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>36</v>
       </c>
@@ -1193,7 +1201,7 @@
       </c>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>37</v>
       </c>
@@ -1202,28 +1210,28 @@
       </c>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>3</v>
       </c>
@@ -1234,7 +1242,7 @@
         <v>43118</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>42</v>
       </c>
@@ -1245,7 +1253,7 @@
         <v>43118</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>60</v>
       </c>
@@ -1256,7 +1264,7 @@
         <v>43118</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>61</v>
       </c>
@@ -1267,14 +1275,14 @@
         <v>43118</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>44</v>
       </c>
@@ -1285,7 +1293,7 @@
         <v>43179</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>46</v>
       </c>
@@ -1296,7 +1304,7 @@
         <v>43179</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -1307,7 +1315,7 @@
         <v>43179</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>45</v>
       </c>
@@ -1318,7 +1326,7 @@
         <v>43179</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>48</v>
       </c>
@@ -1329,7 +1337,7 @@
         <v>43179</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="46.5" customHeight="1">
+    <row r="42" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>62</v>
       </c>
@@ -1349,7 +1357,7 @@
       <c r="O42" s="10"/>
       <c r="P42" s="10"/>
     </row>
-    <row r="43" spans="1:16" ht="24" customHeight="1">
+    <row r="43" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>49</v>
       </c>
@@ -1390,7 +1398,7 @@
         <v>52</v>
       </c>
       <c r="N43" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O43" s="11" t="s">
         <v>5</v>
@@ -1399,7 +1407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="25" t="s">
         <v>50</v>
       </c>
@@ -1413,7 +1421,7 @@
         <v>50</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="F44" s="17" t="s">
         <v>75</v>
@@ -1422,10 +1430,10 @@
         <v>43193</v>
       </c>
       <c r="H44" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I44" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J44" s="19" t="s">
         <v>53</v>
@@ -1439,17 +1447,17 @@
       <c r="M44" s="20">
         <v>43216</v>
       </c>
-      <c r="N44" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="O44" s="28">
+      <c r="N44" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="O44" s="27">
         <v>43242</v>
       </c>
-      <c r="P44" s="27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16">
+      <c r="P44" s="26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="25" t="s">
         <v>50</v>
       </c>
@@ -1463,7 +1471,7 @@
         <v>46</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="F45" s="17" t="s">
         <v>12</v>
@@ -1483,17 +1491,17 @@
       <c r="M45" s="20">
         <v>43216</v>
       </c>
-      <c r="N45" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="O45" s="28">
+      <c r="N45" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O45" s="27">
         <v>43264</v>
       </c>
-      <c r="P45" s="27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16">
+      <c r="P45" s="26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="25" t="s">
         <v>50</v>
       </c>
@@ -1521,17 +1529,17 @@
       <c r="M46" s="20">
         <v>43216</v>
       </c>
-      <c r="N46" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="O46" s="28">
+      <c r="N46" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="O46" s="27">
         <v>43276</v>
       </c>
-      <c r="P46" s="27" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16">
+      <c r="P46" s="26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="25" t="s">
         <v>50</v>
       </c>
@@ -1559,11 +1567,11 @@
       <c r="M47" s="20">
         <v>43216</v>
       </c>
-      <c r="N47" s="27"/>
-      <c r="O47" s="27"/>
-      <c r="P47" s="27"/>
-    </row>
-    <row r="48" spans="1:16">
+      <c r="N47" s="26"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="26"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="25" t="s">
         <v>50</v>
       </c>
@@ -1585,11 +1593,11 @@
         <v>57</v>
       </c>
       <c r="M48" s="19"/>
-      <c r="N48" s="27"/>
-      <c r="O48" s="27"/>
-      <c r="P48" s="27"/>
-    </row>
-    <row r="49" spans="1:16">
+      <c r="N48" s="26"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="26"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="25" t="s">
         <v>50</v>
       </c>
@@ -1615,11 +1623,11 @@
       <c r="M49" s="20">
         <v>43216</v>
       </c>
-      <c r="N49" s="27"/>
-      <c r="O49" s="27"/>
-      <c r="P49" s="27"/>
-    </row>
-    <row r="50" spans="1:16">
+      <c r="N49" s="26"/>
+      <c r="O49" s="26"/>
+      <c r="P49" s="26"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="25" t="s">
         <v>50</v>
       </c>
@@ -1637,11 +1645,11 @@
       <c r="K50" s="19"/>
       <c r="L50" s="21"/>
       <c r="M50" s="19"/>
-      <c r="N50" s="27"/>
-      <c r="O50" s="27"/>
-      <c r="P50" s="27"/>
-    </row>
-    <row r="51" spans="1:16">
+      <c r="N50" s="26"/>
+      <c r="O50" s="26"/>
+      <c r="P50" s="26"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="25" t="s">
         <v>50</v>
       </c>
@@ -1659,11 +1667,11 @@
       <c r="K51" s="19"/>
       <c r="L51" s="21"/>
       <c r="M51" s="19"/>
-      <c r="N51" s="27"/>
-      <c r="O51" s="27"/>
-      <c r="P51" s="27"/>
-    </row>
-    <row r="52" spans="1:16">
+      <c r="N51" s="26"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="26"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="25" t="s">
         <v>50</v>
       </c>
@@ -1681,11 +1689,11 @@
       <c r="K52" s="19"/>
       <c r="L52" s="21"/>
       <c r="M52" s="19"/>
-      <c r="N52" s="27"/>
-      <c r="O52" s="27"/>
-      <c r="P52" s="27"/>
-    </row>
-    <row r="54" spans="1:16" ht="36" customHeight="1">
+      <c r="N52" s="26"/>
+      <c r="O52" s="26"/>
+      <c r="P52" s="26"/>
+    </row>
+    <row r="54" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
         <v>49</v>
       </c>
@@ -1726,7 +1734,7 @@
         <v>52</v>
       </c>
       <c r="N54" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O54" s="11" t="s">
         <v>5</v>
@@ -1735,9 +1743,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>74</v>
@@ -1749,7 +1757,7 @@
         <v>50</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="F55" s="17" t="s">
         <v>75</v>
@@ -1758,10 +1766,10 @@
         <v>43193</v>
       </c>
       <c r="H55" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I55" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J55" s="19" t="s">
         <v>53</v>
@@ -1775,19 +1783,19 @@
       <c r="M55" s="20">
         <v>43216</v>
       </c>
-      <c r="N55" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="O55" s="28">
+      <c r="N55" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="O55" s="27">
         <v>43242</v>
       </c>
-      <c r="P55" s="27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16">
+      <c r="P55" s="26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>8</v>
@@ -1799,7 +1807,7 @@
         <v>46</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="F56" s="17" t="s">
         <v>12</v>
@@ -1819,19 +1827,19 @@
       <c r="M56" s="20">
         <v>43216</v>
       </c>
-      <c r="N56" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="O56" s="28">
+      <c r="N56" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O56" s="27">
         <v>43264</v>
       </c>
-      <c r="P56" s="27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16">
+      <c r="P56" s="26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>9</v>
@@ -1846,10 +1854,10 @@
         <v>43246</v>
       </c>
       <c r="H57" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I57" s="17" t="s">
         <v>92</v>
-      </c>
-      <c r="I57" s="17" t="s">
-        <v>93</v>
       </c>
       <c r="J57" s="19" t="s">
         <v>55</v>
@@ -1863,19 +1871,19 @@
       <c r="M57" s="20">
         <v>43216</v>
       </c>
-      <c r="N57" s="27" t="s">
+      <c r="N57" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="O57" s="27">
+        <v>43276</v>
+      </c>
+      <c r="P57" s="26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A58" s="25" t="s">
         <v>99</v>
-      </c>
-      <c r="O57" s="28">
-        <v>43276</v>
-      </c>
-      <c r="P57" s="27" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16">
-      <c r="A58" s="25" t="s">
-        <v>100</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>10</v>
@@ -1901,13 +1909,13 @@
       <c r="M58" s="20">
         <v>43216</v>
       </c>
-      <c r="N58" s="27"/>
-      <c r="O58" s="27"/>
-      <c r="P58" s="27"/>
-    </row>
-    <row r="59" spans="1:16">
+      <c r="N58" s="26"/>
+      <c r="O58" s="26"/>
+      <c r="P58" s="26"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -1920,10 +1928,10 @@
         <v>43308</v>
       </c>
       <c r="H59" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="I59" s="17" t="s">
         <v>90</v>
-      </c>
-      <c r="I59" s="17" t="s">
-        <v>91</v>
       </c>
       <c r="J59" s="19" t="s">
         <v>57</v>
@@ -1933,13 +1941,13 @@
         <v>57</v>
       </c>
       <c r="M59" s="19"/>
-      <c r="N59" s="27"/>
-      <c r="O59" s="27"/>
-      <c r="P59" s="27"/>
-    </row>
-    <row r="60" spans="1:16">
+      <c r="N59" s="26"/>
+      <c r="O59" s="26"/>
+      <c r="P59" s="26"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -1963,13 +1971,13 @@
       <c r="M60" s="20">
         <v>43216</v>
       </c>
-      <c r="N60" s="27"/>
-      <c r="O60" s="27"/>
-      <c r="P60" s="27"/>
-    </row>
-    <row r="61" spans="1:16">
+      <c r="N60" s="26"/>
+      <c r="O60" s="26"/>
+      <c r="P60" s="26"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -1985,13 +1993,13 @@
       <c r="K61" s="19"/>
       <c r="L61" s="19"/>
       <c r="M61" s="19"/>
-      <c r="N61" s="27"/>
-      <c r="O61" s="27"/>
-      <c r="P61" s="27"/>
-    </row>
-    <row r="62" spans="1:16">
+      <c r="N61" s="26"/>
+      <c r="O61" s="26"/>
+      <c r="P61" s="26"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
@@ -2007,13 +2015,13 @@
       <c r="K62" s="19"/>
       <c r="L62" s="19"/>
       <c r="M62" s="19"/>
-      <c r="N62" s="27"/>
-      <c r="O62" s="27"/>
-      <c r="P62" s="27"/>
-    </row>
-    <row r="63" spans="1:16">
+      <c r="N62" s="26"/>
+      <c r="O62" s="26"/>
+      <c r="P62" s="26"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -2029,11 +2037,11 @@
       <c r="K63" s="19"/>
       <c r="L63" s="19"/>
       <c r="M63" s="19"/>
-      <c r="N63" s="27"/>
-      <c r="O63" s="27"/>
-      <c r="P63" s="27"/>
-    </row>
-    <row r="65" spans="1:16" ht="37.5" customHeight="1">
+      <c r="N63" s="26"/>
+      <c r="O63" s="26"/>
+      <c r="P63" s="26"/>
+    </row>
+    <row r="65" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
         <v>49</v>
       </c>
@@ -2074,7 +2082,7 @@
         <v>52</v>
       </c>
       <c r="N65" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O65" s="11" t="s">
         <v>5</v>
@@ -2083,9 +2091,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B66" s="14" t="s">
         <v>74</v>
@@ -2097,7 +2105,7 @@
         <v>50</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="F66" s="17" t="s">
         <v>75</v>
@@ -2106,10 +2114,10 @@
         <v>43193</v>
       </c>
       <c r="H66" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I66" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J66" s="19" t="s">
         <v>53</v>
@@ -2123,19 +2131,19 @@
       <c r="M66" s="20">
         <v>43216</v>
       </c>
-      <c r="N66" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="O66" s="28">
+      <c r="N66" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="O66" s="27">
         <v>43242</v>
       </c>
-      <c r="P66" s="27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16">
+      <c r="P66" s="26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B67" s="14" t="s">
         <v>8</v>
@@ -2147,7 +2155,7 @@
         <v>96</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="F67" s="17" t="s">
         <v>12</v>
@@ -2167,19 +2175,19 @@
       <c r="M67" s="20">
         <v>43216</v>
       </c>
-      <c r="N67" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="O67" s="28">
+      <c r="N67" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O67" s="27">
         <v>43264</v>
       </c>
-      <c r="P67" s="27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16">
+      <c r="P67" s="26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B68" s="14" t="s">
         <v>9</v>
@@ -2191,7 +2199,7 @@
         <v>60</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="F68" s="17" t="s">
         <v>76</v>
@@ -2211,19 +2219,19 @@
       <c r="M68" s="20">
         <v>43216</v>
       </c>
-      <c r="N68" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="O68" s="28">
+      <c r="N68" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="O68" s="27">
         <v>43276</v>
       </c>
-      <c r="P68" s="27" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16">
+      <c r="P68" s="26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B69" s="14" t="s">
         <v>10</v>
@@ -2249,13 +2257,13 @@
       <c r="M69" s="20">
         <v>43216</v>
       </c>
-      <c r="N69" s="27"/>
-      <c r="O69" s="27"/>
-      <c r="P69" s="27"/>
-    </row>
-    <row r="70" spans="1:16">
+      <c r="N69" s="26"/>
+      <c r="O69" s="26"/>
+      <c r="P69" s="26"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -2275,13 +2283,13 @@
         <v>57</v>
       </c>
       <c r="M70" s="19"/>
-      <c r="N70" s="27"/>
-      <c r="O70" s="27"/>
-      <c r="P70" s="27"/>
-    </row>
-    <row r="71" spans="1:16">
+      <c r="N70" s="26"/>
+      <c r="O70" s="26"/>
+      <c r="P70" s="26"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -2305,13 +2313,13 @@
       <c r="M71" s="20">
         <v>43216</v>
       </c>
-      <c r="N71" s="27"/>
-      <c r="O71" s="27"/>
-      <c r="P71" s="27"/>
-    </row>
-    <row r="72" spans="1:16">
+      <c r="N71" s="26"/>
+      <c r="O71" s="26"/>
+      <c r="P71" s="26"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
@@ -2327,13 +2335,13 @@
       <c r="K72" s="19"/>
       <c r="L72" s="19"/>
       <c r="M72" s="19"/>
-      <c r="N72" s="27"/>
-      <c r="O72" s="27"/>
-      <c r="P72" s="27"/>
-    </row>
-    <row r="73" spans="1:16">
+      <c r="N72" s="26"/>
+      <c r="O72" s="26"/>
+      <c r="P72" s="26"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
@@ -2349,13 +2357,13 @@
       <c r="K73" s="19"/>
       <c r="L73" s="19"/>
       <c r="M73" s="19"/>
-      <c r="N73" s="27"/>
-      <c r="O73" s="27"/>
-      <c r="P73" s="27"/>
-    </row>
-    <row r="74" spans="1:16">
+      <c r="N73" s="26"/>
+      <c r="O73" s="26"/>
+      <c r="P73" s="26"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
@@ -2371,11 +2379,11 @@
       <c r="K74" s="19"/>
       <c r="L74" s="19"/>
       <c r="M74" s="19"/>
-      <c r="N74" s="27"/>
-      <c r="O74" s="27"/>
-      <c r="P74" s="27"/>
-    </row>
-    <row r="76" spans="1:16">
+      <c r="N74" s="26"/>
+      <c r="O74" s="26"/>
+      <c r="P74" s="26"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
         <v>49</v>
       </c>
@@ -2416,7 +2424,7 @@
         <v>52</v>
       </c>
       <c r="N76" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O76" s="11" t="s">
         <v>5</v>
@@ -2425,7 +2433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="25" t="s">
         <v>63</v>
       </c>
@@ -2439,7 +2447,7 @@
         <v>50</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="F77" s="17" t="s">
         <v>75</v>
@@ -2448,10 +2456,10 @@
         <v>43193</v>
       </c>
       <c r="H77" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I77" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J77" s="19" t="s">
         <v>53</v>
@@ -2465,17 +2473,17 @@
       <c r="M77" s="20">
         <v>43216</v>
       </c>
-      <c r="N77" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="O77" s="28">
+      <c r="N77" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="O77" s="27">
         <v>43242</v>
       </c>
-      <c r="P77" s="27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16">
+      <c r="P77" s="26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="25" t="s">
         <v>63</v>
       </c>
@@ -2489,7 +2497,7 @@
         <v>96</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="F78" s="17" t="s">
         <v>12</v>
@@ -2509,17 +2517,17 @@
       <c r="M78" s="20">
         <v>43216</v>
       </c>
-      <c r="N78" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="O78" s="28">
+      <c r="N78" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O78" s="27">
         <v>43264</v>
       </c>
-      <c r="P78" s="27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16">
+      <c r="P78" s="26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="25" t="s">
         <v>63</v>
       </c>
@@ -2533,7 +2541,7 @@
         <v>60</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="F79" s="17" t="s">
         <v>76</v>
@@ -2542,10 +2550,10 @@
         <v>43246</v>
       </c>
       <c r="H79" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I79" s="17" t="s">
         <v>92</v>
-      </c>
-      <c r="I79" s="17" t="s">
-        <v>93</v>
       </c>
       <c r="J79" s="19" t="s">
         <v>55</v>
@@ -2559,17 +2567,17 @@
       <c r="M79" s="20">
         <v>43216</v>
       </c>
-      <c r="N79" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="O79" s="28">
+      <c r="N79" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="O79" s="27">
         <v>43276</v>
       </c>
-      <c r="P79" s="27" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16">
+      <c r="P79" s="26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="25" t="s">
         <v>63</v>
       </c>
@@ -2597,11 +2605,11 @@
       <c r="M80" s="20">
         <v>43216</v>
       </c>
-      <c r="N80" s="27"/>
-      <c r="O80" s="27"/>
-      <c r="P80" s="27"/>
-    </row>
-    <row r="81" spans="1:16">
+      <c r="N80" s="26"/>
+      <c r="O80" s="26"/>
+      <c r="P80" s="26"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="25" t="s">
         <v>63</v>
       </c>
@@ -2616,10 +2624,10 @@
         <v>43308</v>
       </c>
       <c r="H81" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="I81" s="17" t="s">
         <v>90</v>
-      </c>
-      <c r="I81" s="17" t="s">
-        <v>91</v>
       </c>
       <c r="J81" s="19" t="s">
         <v>57</v>
@@ -2629,11 +2637,11 @@
         <v>57</v>
       </c>
       <c r="M81" s="19"/>
-      <c r="N81" s="27"/>
-      <c r="O81" s="27"/>
-      <c r="P81" s="27"/>
-    </row>
-    <row r="82" spans="1:16">
+      <c r="N81" s="26"/>
+      <c r="O81" s="26"/>
+      <c r="P81" s="26"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="25" t="s">
         <v>63</v>
       </c>
@@ -2659,11 +2667,11 @@
       <c r="M82" s="20">
         <v>43216</v>
       </c>
-      <c r="N82" s="27"/>
-      <c r="O82" s="27"/>
-      <c r="P82" s="27"/>
-    </row>
-    <row r="83" spans="1:16">
+      <c r="N82" s="26"/>
+      <c r="O82" s="26"/>
+      <c r="P82" s="26"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="25" t="s">
         <v>63</v>
       </c>
@@ -2681,11 +2689,11 @@
       <c r="K83" s="19"/>
       <c r="L83" s="19"/>
       <c r="M83" s="19"/>
-      <c r="N83" s="27"/>
-      <c r="O83" s="27"/>
-      <c r="P83" s="27"/>
-    </row>
-    <row r="84" spans="1:16">
+      <c r="N83" s="26"/>
+      <c r="O83" s="26"/>
+      <c r="P83" s="26"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" s="25" t="s">
         <v>63</v>
       </c>
@@ -2703,11 +2711,11 @@
       <c r="K84" s="19"/>
       <c r="L84" s="19"/>
       <c r="M84" s="19"/>
-      <c r="N84" s="27"/>
-      <c r="O84" s="27"/>
-      <c r="P84" s="27"/>
-    </row>
-    <row r="85" spans="1:16">
+      <c r="N84" s="26"/>
+      <c r="O84" s="26"/>
+      <c r="P84" s="26"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" s="25" t="s">
         <v>63</v>
       </c>
@@ -2725,11 +2733,11 @@
       <c r="K85" s="19"/>
       <c r="L85" s="19"/>
       <c r="M85" s="19"/>
-      <c r="N85" s="27"/>
-      <c r="O85" s="27"/>
-      <c r="P85" s="27"/>
-    </row>
-    <row r="87" spans="1:16">
+      <c r="N85" s="26"/>
+      <c r="O85" s="26"/>
+      <c r="P85" s="26"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
         <v>49</v>
       </c>
@@ -2770,7 +2778,7 @@
         <v>52</v>
       </c>
       <c r="N87" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O87" s="11" t="s">
         <v>5</v>
@@ -2779,7 +2787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="25" t="s">
         <v>67</v>
       </c>
@@ -2793,7 +2801,7 @@
         <v>50</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="F88" s="17" t="s">
         <v>75</v>
@@ -2802,10 +2810,10 @@
         <v>43193</v>
       </c>
       <c r="H88" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I88" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J88" s="19" t="s">
         <v>53</v>
@@ -2819,13 +2827,13 @@
       <c r="M88" s="20">
         <v>43216</v>
       </c>
-      <c r="N88" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="O88" s="28"/>
-      <c r="P88" s="27"/>
-    </row>
-    <row r="89" spans="1:16">
+      <c r="N88" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="O88" s="27"/>
+      <c r="P88" s="26"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="25" t="s">
         <v>67</v>
       </c>
@@ -2839,7 +2847,7 @@
         <v>96</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="F89" s="17" t="s">
         <v>12</v>
@@ -2859,13 +2867,13 @@
       <c r="M89" s="20">
         <v>43216</v>
       </c>
-      <c r="N89" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="O89" s="28"/>
-      <c r="P89" s="27"/>
-    </row>
-    <row r="90" spans="1:16">
+      <c r="N89" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O89" s="27"/>
+      <c r="P89" s="26"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="25" t="s">
         <v>67</v>
       </c>
@@ -2879,7 +2887,7 @@
         <v>60</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="F90" s="17" t="s">
         <v>76</v>
@@ -2888,10 +2896,10 @@
         <v>43246</v>
       </c>
       <c r="H90" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I90" s="17" t="s">
         <v>92</v>
-      </c>
-      <c r="I90" s="17" t="s">
-        <v>93</v>
       </c>
       <c r="J90" s="19" t="s">
         <v>55</v>
@@ -2905,13 +2913,13 @@
       <c r="M90" s="20">
         <v>43216</v>
       </c>
-      <c r="N90" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="O90" s="28"/>
-      <c r="P90" s="27"/>
-    </row>
-    <row r="91" spans="1:16">
+      <c r="N90" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="O90" s="27"/>
+      <c r="P90" s="26"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" s="25" t="s">
         <v>67</v>
       </c>
@@ -2939,11 +2947,11 @@
       <c r="M91" s="20">
         <v>43216</v>
       </c>
-      <c r="N91" s="27"/>
-      <c r="O91" s="27"/>
-      <c r="P91" s="27"/>
-    </row>
-    <row r="92" spans="1:16">
+      <c r="N91" s="26"/>
+      <c r="O91" s="26"/>
+      <c r="P91" s="26"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" s="25" t="s">
         <v>67</v>
       </c>
@@ -2958,10 +2966,10 @@
         <v>43308</v>
       </c>
       <c r="H92" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="I92" s="17" t="s">
         <v>90</v>
-      </c>
-      <c r="I92" s="17" t="s">
-        <v>91</v>
       </c>
       <c r="J92" s="19" t="s">
         <v>57</v>
@@ -2971,11 +2979,11 @@
         <v>57</v>
       </c>
       <c r="M92" s="19"/>
-      <c r="N92" s="27"/>
-      <c r="O92" s="27"/>
-      <c r="P92" s="27"/>
-    </row>
-    <row r="93" spans="1:16">
+      <c r="N92" s="26"/>
+      <c r="O92" s="26"/>
+      <c r="P92" s="26"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" s="25" t="s">
         <v>67</v>
       </c>
@@ -3001,11 +3009,11 @@
       <c r="M93" s="20">
         <v>43216</v>
       </c>
-      <c r="N93" s="27"/>
-      <c r="O93" s="27"/>
-      <c r="P93" s="27"/>
-    </row>
-    <row r="94" spans="1:16">
+      <c r="N93" s="26"/>
+      <c r="O93" s="26"/>
+      <c r="P93" s="26"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="25" t="s">
         <v>67</v>
       </c>
@@ -3023,11 +3031,11 @@
       <c r="K94" s="19"/>
       <c r="L94" s="19"/>
       <c r="M94" s="19"/>
-      <c r="N94" s="27"/>
-      <c r="O94" s="27"/>
-      <c r="P94" s="27"/>
-    </row>
-    <row r="95" spans="1:16">
+      <c r="N94" s="26"/>
+      <c r="O94" s="26"/>
+      <c r="P94" s="26"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" s="25" t="s">
         <v>67</v>
       </c>
@@ -3045,11 +3053,11 @@
       <c r="K95" s="19"/>
       <c r="L95" s="19"/>
       <c r="M95" s="19"/>
-      <c r="N95" s="27"/>
-      <c r="O95" s="27"/>
-      <c r="P95" s="27"/>
-    </row>
-    <row r="96" spans="1:16">
+      <c r="N95" s="26"/>
+      <c r="O95" s="26"/>
+      <c r="P95" s="26"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" s="25" t="s">
         <v>67</v>
       </c>
@@ -3067,25 +3075,25 @@
       <c r="K96" s="19"/>
       <c r="L96" s="19"/>
       <c r="M96" s="19"/>
-      <c r="N96" s="27"/>
-      <c r="O96" s="27"/>
-      <c r="P96" s="27"/>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="N96" s="26"/>
+      <c r="O96" s="26"/>
+      <c r="P96" s="26"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="B105" s="26"/>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B105" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data/management/Management_information_GGE_2018.xlsx
+++ b/data/management/Management_information_GGE_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tillrose/Library/Mobile Documents/com~apple~CloudDocs/iCloud Daten/Arbeit/R-Projects/Git_Repositories/BRIWECS_Data_Publication_2/data/management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E20716D-518B-B541-A575-7DD4864FBECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FCDE92-F9BF-6C43-817D-4085A5A4203A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="36540" windowHeight="20160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -238,12 +238,6 @@
     <t>Pflug,    Kreiselegge</t>
   </si>
   <si>
-    <t>Verschiedene Getreide</t>
-  </si>
-  <si>
-    <t>Sommergerste</t>
-  </si>
-  <si>
     <t>1st nitrogen application</t>
   </si>
   <si>
@@ -329,6 +323,12 @@
   </si>
   <si>
     <t>CAN</t>
+  </si>
+  <si>
+    <t>summer barley</t>
+  </si>
+  <si>
+    <t>diverse grain crops</t>
   </si>
 </sst>
 </file>
@@ -985,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1035,7 +1035,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1043,7 +1043,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1051,7 +1051,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1141,7 +1141,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C20" s="3"/>
     </row>
@@ -1171,7 +1171,7 @@
         <v>71</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1179,7 +1179,7 @@
         <v>34</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="C24" s="3"/>
     </row>
@@ -1188,7 +1188,7 @@
         <v>35</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="C25" s="3"/>
     </row>
@@ -1247,7 +1247,7 @@
         <v>42</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C32" s="7">
         <v>43118</v>
@@ -1398,7 +1398,7 @@
         <v>52</v>
       </c>
       <c r="N43" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O43" s="11" t="s">
         <v>5</v>
@@ -1412,7 +1412,7 @@
         <v>50</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C44" s="15">
         <v>43174</v>
@@ -1421,19 +1421,19 @@
         <v>50</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G44" s="18">
         <v>43193</v>
       </c>
       <c r="H44" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I44" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J44" s="19" t="s">
         <v>53</v>
@@ -1448,13 +1448,13 @@
         <v>43216</v>
       </c>
       <c r="N44" s="26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O44" s="27">
         <v>43242</v>
       </c>
       <c r="P44" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
@@ -1471,7 +1471,7 @@
         <v>46</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F45" s="17" t="s">
         <v>12</v>
@@ -1492,13 +1492,13 @@
         <v>43216</v>
       </c>
       <c r="N45" s="26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O45" s="27">
         <v>43264</v>
       </c>
       <c r="P45" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
@@ -1512,7 +1512,7 @@
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
       <c r="F46" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
@@ -1530,13 +1530,13 @@
         <v>43216</v>
       </c>
       <c r="N46" s="26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O46" s="27">
         <v>43276</v>
       </c>
       <c r="P46" s="26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
@@ -1580,7 +1580,7 @@
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
       <c r="F48" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
@@ -1658,7 +1658,7 @@
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
       <c r="F51" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
@@ -1734,7 +1734,7 @@
         <v>52</v>
       </c>
       <c r="N54" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O54" s="11" t="s">
         <v>5</v>
@@ -1745,10 +1745,10 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C55" s="15">
         <v>43174</v>
@@ -1757,19 +1757,19 @@
         <v>50</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G55" s="18">
         <v>43193</v>
       </c>
       <c r="H55" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I55" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J55" s="19" t="s">
         <v>53</v>
@@ -1784,18 +1784,18 @@
         <v>43216</v>
       </c>
       <c r="N55" s="26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O55" s="27">
         <v>43242</v>
       </c>
       <c r="P55" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>8</v>
@@ -1807,7 +1807,7 @@
         <v>46</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F56" s="17" t="s">
         <v>12</v>
@@ -1828,18 +1828,18 @@
         <v>43216</v>
       </c>
       <c r="N56" s="26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O56" s="27">
         <v>43264</v>
       </c>
       <c r="P56" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>9</v>
@@ -1848,16 +1848,16 @@
       <c r="D57" s="14"/>
       <c r="E57" s="16"/>
       <c r="F57" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G57" s="18">
         <v>43246</v>
       </c>
       <c r="H57" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I57" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J57" s="19" t="s">
         <v>55</v>
@@ -1872,18 +1872,18 @@
         <v>43216</v>
       </c>
       <c r="N57" s="26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O57" s="27">
         <v>43276</v>
       </c>
       <c r="P57" s="26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>10</v>
@@ -1915,23 +1915,23 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
       <c r="E59" s="14"/>
       <c r="F59" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G59" s="18">
         <v>43308</v>
       </c>
       <c r="H59" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I59" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J59" s="19" t="s">
         <v>57</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -1977,7 +1977,7 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -1999,14 +1999,14 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
       <c r="F62" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G62" s="18"/>
       <c r="H62" s="17"/>
@@ -2021,7 +2021,7 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -2082,7 +2082,7 @@
         <v>52</v>
       </c>
       <c r="N65" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O65" s="11" t="s">
         <v>5</v>
@@ -2093,10 +2093,10 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C66" s="15">
         <v>43174</v>
@@ -2105,19 +2105,19 @@
         <v>50</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F66" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G66" s="18">
         <v>43193</v>
       </c>
       <c r="H66" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I66" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J66" s="19" t="s">
         <v>53</v>
@@ -2132,18 +2132,18 @@
         <v>43216</v>
       </c>
       <c r="N66" s="26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O66" s="27">
         <v>43242</v>
       </c>
       <c r="P66" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B67" s="14" t="s">
         <v>8</v>
@@ -2155,7 +2155,7 @@
         <v>96</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F67" s="17" t="s">
         <v>12</v>
@@ -2176,18 +2176,18 @@
         <v>43216</v>
       </c>
       <c r="N67" s="26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O67" s="27">
         <v>43264</v>
       </c>
       <c r="P67" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B68" s="14" t="s">
         <v>9</v>
@@ -2199,10 +2199,10 @@
         <v>60</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G68" s="17"/>
       <c r="H68" s="17"/>
@@ -2220,18 +2220,18 @@
         <v>43216</v>
       </c>
       <c r="N68" s="26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O68" s="27">
         <v>43276</v>
       </c>
       <c r="P68" s="26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B69" s="14" t="s">
         <v>10</v>
@@ -2263,14 +2263,14 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
       <c r="D70" s="14"/>
       <c r="E70" s="14"/>
       <c r="F70" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G70" s="18"/>
       <c r="H70" s="17"/>
@@ -2289,7 +2289,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
@@ -2341,14 +2341,14 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
       <c r="D73" s="14"/>
       <c r="E73" s="14"/>
       <c r="F73" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G73" s="18"/>
       <c r="H73" s="17"/>
@@ -2363,7 +2363,7 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
@@ -2424,7 +2424,7 @@
         <v>52</v>
       </c>
       <c r="N76" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O76" s="11" t="s">
         <v>5</v>
@@ -2438,7 +2438,7 @@
         <v>63</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C77" s="15">
         <v>43174</v>
@@ -2447,19 +2447,19 @@
         <v>50</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F77" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G77" s="18">
         <v>43193</v>
       </c>
       <c r="H77" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I77" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J77" s="19" t="s">
         <v>53</v>
@@ -2474,13 +2474,13 @@
         <v>43216</v>
       </c>
       <c r="N77" s="26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O77" s="27">
         <v>43242</v>
       </c>
       <c r="P77" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
@@ -2497,7 +2497,7 @@
         <v>96</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F78" s="17" t="s">
         <v>12</v>
@@ -2518,13 +2518,13 @@
         <v>43216</v>
       </c>
       <c r="N78" s="26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O78" s="27">
         <v>43264</v>
       </c>
       <c r="P78" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
@@ -2541,19 +2541,19 @@
         <v>60</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F79" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G79" s="18">
         <v>43246</v>
       </c>
       <c r="H79" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I79" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J79" s="19" t="s">
         <v>55</v>
@@ -2568,13 +2568,13 @@
         <v>43216</v>
       </c>
       <c r="N79" s="26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O79" s="27">
         <v>43276</v>
       </c>
       <c r="P79" s="26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
@@ -2618,16 +2618,16 @@
       <c r="D81" s="14"/>
       <c r="E81" s="14"/>
       <c r="F81" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G81" s="18">
         <v>43308</v>
       </c>
       <c r="H81" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I81" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J81" s="19" t="s">
         <v>57</v>
@@ -2702,7 +2702,7 @@
       <c r="D84" s="14"/>
       <c r="E84" s="14"/>
       <c r="F84" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G84" s="18"/>
       <c r="H84" s="17"/>
@@ -2778,7 +2778,7 @@
         <v>52</v>
       </c>
       <c r="N87" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O87" s="11" t="s">
         <v>5</v>
@@ -2792,7 +2792,7 @@
         <v>67</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C88" s="15">
         <v>43174</v>
@@ -2801,19 +2801,19 @@
         <v>50</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F88" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G88" s="18">
         <v>43193</v>
       </c>
       <c r="H88" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I88" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J88" s="19" t="s">
         <v>53</v>
@@ -2828,7 +2828,7 @@
         <v>43216</v>
       </c>
       <c r="N88" s="26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O88" s="27"/>
       <c r="P88" s="26"/>
@@ -2847,7 +2847,7 @@
         <v>96</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F89" s="17" t="s">
         <v>12</v>
@@ -2868,7 +2868,7 @@
         <v>43216</v>
       </c>
       <c r="N89" s="26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O89" s="27"/>
       <c r="P89" s="26"/>
@@ -2887,19 +2887,19 @@
         <v>60</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F90" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G90" s="18">
         <v>43246</v>
       </c>
       <c r="H90" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I90" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J90" s="19" t="s">
         <v>55</v>
@@ -2914,7 +2914,7 @@
         <v>43216</v>
       </c>
       <c r="N90" s="26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O90" s="27"/>
       <c r="P90" s="26"/>
@@ -2960,16 +2960,16 @@
       <c r="D92" s="14"/>
       <c r="E92" s="14"/>
       <c r="F92" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G92" s="18">
         <v>43308</v>
       </c>
       <c r="H92" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I92" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J92" s="19" t="s">
         <v>57</v>
@@ -3044,7 +3044,7 @@
       <c r="D95" s="14"/>
       <c r="E95" s="14"/>
       <c r="F95" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G95" s="18"/>
       <c r="H95" s="17"/>
@@ -3081,17 +3081,17 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B105" s="28"/>
     </row>
